--- a/Design/钓鱼模拟器.xlsx
+++ b/Design/钓鱼模拟器.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\projects\GameOff2022\策划案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\projects\GameOff2022\GameOffJam\GameOffJam2022\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181AEB0-4628-458E-9188-53B002DA8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BAC7FE-2638-4C85-9183-966511CE871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{1C8901F2-9366-40E0-9358-1707ADC75FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{1C8901F2-9366-40E0-9358-1707ADC75FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="更新记录" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
   <si>
     <t>钓鱼模拟器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钓鱼过程中若进行移动或冲撞，钓鱼进程将中止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>钓鱼可能获得鱼类或道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>携带鱼类受到冲撞时，若受到冲撞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家-取消携带状态并被撞飞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,10 +376,6 @@
   </si>
   <si>
     <t>表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条为原型进度，中间为稀有度表现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -859,6 +847,70 @@
   </si>
   <si>
     <t>结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条为圆形进度，中间为稀有度表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带鱼类受到冲撞时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲撞？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼过程中若进行移动或冲撞，钓鱼进程将直接结算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证基础机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆内容+美术表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具+美术打磨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后几天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE案完成，需求单制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值详细配置完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1241,23 +1293,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1268,13 +1314,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,26 +1341,32 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2081,15 +2133,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>206032</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>194863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>201826</xdr:rowOff>
+      <xdr:rowOff>182776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2112,8 +2164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="16188982"/>
-          <a:ext cx="1952625" cy="624444"/>
+          <a:off x="8448675" y="18273313"/>
+          <a:ext cx="3238500" cy="1035663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3374,10 +3426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F9ED17-E155-40DE-AF10-41C605D71F44}">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3388,13 +3440,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -3402,10 +3454,10 @@
         <v>11.5</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -3413,10 +3465,69 @@
         <v>11.6</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="18">
+        <v>11.7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="18">
+        <v>11.8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3429,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F05F0-1F67-4495-AC8A-750B0687B01D}">
   <dimension ref="A1:Y166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3453,34 +3564,34 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="19" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -3655,38 +3766,38 @@
       <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
+      <c r="D35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="39" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3714,7 +3825,7 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3756,72 +3867,72 @@
       <c r="D67" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="20"/>
       <c r="D68" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="33"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="31"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="21"/>
       <c r="D69" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="33"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C70" s="48"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C71" s="28"/>
+      <c r="D71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="33"/>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C71" s="49"/>
-      <c r="D71" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -3833,18 +3944,18 @@
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D72" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
     </row>
     <row r="75" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
@@ -3883,76 +3994,76 @@
       <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="31"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C79" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="33"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="31"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="33"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="31"/>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="33"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="31"/>
     </row>
     <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="33"/>
+      <c r="D82" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="31"/>
     </row>
     <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="14" t="s">
@@ -3963,198 +4074,198 @@
       <c r="C85" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="33"/>
+      <c r="D85" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="33"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="31"/>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="33"/>
+        <v>84</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="31"/>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="31"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C91" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="33"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C91" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="E91" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="40"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C92" s="36"/>
+      <c r="D92" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="31"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C93" s="36"/>
+      <c r="D93" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="42"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C92" s="38"/>
-      <c r="D92" s="10" t="s">
+      <c r="E93" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="31"/>
+      <c r="N93" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C94" s="37"/>
+      <c r="D94" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="33"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C93" s="38"/>
-      <c r="D93" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="33"/>
-      <c r="N93" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C94" s="39"/>
-      <c r="D94" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="33"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
     </row>
     <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C97" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="C97" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C98" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="C98" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C99" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
+      <c r="C99" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C101" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
+      <c r="C101" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C102" s="30"/>
-      <c r="D102" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C104" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.2">
@@ -4255,7 +4366,7 @@
     </row>
     <row r="114" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -4283,150 +4394,150 @@
     </row>
     <row r="116" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C116" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C117" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E117" s="33"/>
+      <c r="E117" s="31"/>
     </row>
     <row r="118" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C118" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D118" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" s="33"/>
+      <c r="E118" s="31"/>
     </row>
     <row r="119" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="33"/>
+      <c r="E119" s="31"/>
     </row>
     <row r="121" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C121" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C122" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D122" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="33"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="31"/>
     </row>
     <row r="123" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C123" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="33"/>
+      <c r="D123" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="31"/>
     </row>
     <row r="124" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C124" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="33"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="31"/>
     </row>
     <row r="126" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C126" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C127" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="33"/>
+      <c r="D127" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="31"/>
     </row>
     <row r="128" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C128" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D128" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="31"/>
     </row>
     <row r="129" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C129" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="31"/>
+    </row>
+    <row r="130" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C130" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="31"/>
+    </row>
+    <row r="131" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C131" s="36"/>
+      <c r="D131" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="33"/>
-    </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C130" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="31" t="s">
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="31"/>
+    </row>
+    <row r="132" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C132" s="37"/>
+      <c r="D132" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
-    </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C131" s="38"/>
-      <c r="D131" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="33"/>
-    </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C132" s="39"/>
-      <c r="D132" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="31"/>
     </row>
     <row r="134" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -4454,45 +4565,48 @@
     </row>
     <row r="135" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C135" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C136" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D136" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" s="46"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="47"/>
+      <c r="C136" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
     </row>
     <row r="137" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C137" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D137" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="31"/>
+      <c r="J137" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="138" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C138" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="31"/>
     </row>
     <row r="140" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -4519,131 +4633,131 @@
       <c r="Y140" s="8"/>
     </row>
     <row r="142" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C142" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
+      <c r="C142" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="31"/>
     </row>
     <row r="144" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C144" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C145" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D145" s="31" t="str">
+        <v>172</v>
+      </c>
+      <c r="D145" s="29" t="str">
         <f>"游戏开始"&amp;数值配置!D6&amp;"s后掉落第一个空投"</f>
         <v>游戏开始30s后掉落第一个空投</v>
       </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="33"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="31"/>
     </row>
     <row r="146" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C146" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D146" s="31" t="str">
+        <v>182</v>
+      </c>
+      <c r="D146" s="29" t="str">
         <f>"空投存在"&amp;数值配置!E6&amp;"s后消除自身"</f>
         <v>空投存在20s后消除自身</v>
       </c>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="33"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="31"/>
     </row>
     <row r="147" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C147" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D147" s="31" t="str">
+        <v>173</v>
+      </c>
+      <c r="D147" s="29" t="str">
         <f>"每"&amp;数值配置!F6&amp;"s刷新一个空投"</f>
         <v>每30s刷新一个空投</v>
       </c>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="33"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="31"/>
     </row>
     <row r="148" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C148" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="33"/>
+        <v>174</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="31"/>
     </row>
     <row r="150" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C150" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="C151" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D151" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="47"/>
+      <c r="C151" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="34"/>
     </row>
     <row r="152" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C152" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="32"/>
-      <c r="I152" s="32"/>
-      <c r="J152" s="33"/>
+        <v>75</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="31"/>
     </row>
     <row r="153" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C153" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D153" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="32"/>
-      <c r="J153" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="31"/>
     </row>
     <row r="154" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C154" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
-      <c r="J154" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="31"/>
     </row>
     <row r="156" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -4671,46 +4785,49 @@
     </row>
     <row r="158" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C158" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D158" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="32"/>
-      <c r="I158" s="33"/>
+        <v>58</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="31"/>
     </row>
     <row r="159" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C159" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D159" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="32"/>
-      <c r="I159" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="31"/>
     </row>
     <row r="160" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C160" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D160" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="32"/>
-      <c r="I160" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="162" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -4738,50 +4855,78 @@
     </row>
     <row r="164" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C164" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="31"/>
     </row>
     <row r="165" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C165" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D165" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="31"/>
     </row>
     <row r="166" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C166" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D166" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="D85:K85"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="D78:K78"/>
+    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D80:K80"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="D82:K82"/>
+    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="E72:L72"/>
+    <mergeCell ref="D152:J152"/>
+    <mergeCell ref="D153:J153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="D90:K90"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="E92:K92"/>
+    <mergeCell ref="E93:K93"/>
+    <mergeCell ref="E94:K94"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D164:I164"/>
+    <mergeCell ref="D165:I165"/>
     <mergeCell ref="D166:I166"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="D124:G124"/>
@@ -4798,43 +4943,15 @@
     <mergeCell ref="D146:G146"/>
     <mergeCell ref="D147:G147"/>
     <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="D164:I164"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D152:J152"/>
-    <mergeCell ref="D153:J153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="D90:K90"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="E92:K92"/>
-    <mergeCell ref="E93:K93"/>
-    <mergeCell ref="E94:K94"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C142:H142"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="E67:L67"/>
     <mergeCell ref="E68:L68"/>
     <mergeCell ref="E69:L69"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="D85:K85"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="D78:K78"/>
-    <mergeCell ref="D79:K79"/>
-    <mergeCell ref="D80:K80"/>
-    <mergeCell ref="D81:K81"/>
-    <mergeCell ref="D82:K82"/>
-    <mergeCell ref="E70:L70"/>
-    <mergeCell ref="E72:L72"/>
     <mergeCell ref="C99:G99"/>
     <mergeCell ref="D100:G100"/>
     <mergeCell ref="D101:G101"/>
@@ -4852,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F6753-C59E-4949-9A82-EFB32267A238}">
   <dimension ref="A3:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4867,41 +4984,41 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4923,53 +5040,53 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="H9" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4997,53 +5114,53 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5105,53 +5222,53 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -5159,22 +5276,22 @@
         <v>101</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -5182,22 +5299,22 @@
         <v>102</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D27" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -5205,61 +5322,67 @@
         <v>103</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="18">
+        <v>4</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="18">
-        <v>6</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="H28" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5268,13 +5391,16 @@
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="18">
         <v>20</v>
+      </c>
+      <c r="G35" s="18">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5283,58 +5409,61 @@
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E36" s="18">
         <v>2</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="G36" s="18">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,13 +5472,13 @@
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E41" s="18">
         <v>1</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G41" s="18">
         <v>10</v>
@@ -5361,7 +5490,7 @@
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E42" s="18">
         <v>2</v>
@@ -5379,13 +5508,13 @@
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E43" s="18">
         <v>3</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G43" s="18">
         <v>20</v>
@@ -5402,91 +5531,91 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="9" style="43"/>
+    <col min="2" max="2" width="9" style="25"/>
     <col min="4" max="4" width="53.125" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="43" t="s">
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="C2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -5494,7 +5623,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -5507,42 +5636,42 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
